--- a/dataset/哈利波特/output/角色统计/哈利波特与凤凰社 第19章 角色统计.xlsx
+++ b/dataset/哈利波特/output/角色统计/哈利波特与凤凰社 第19章 角色统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>角色</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>斯内普</t>
+  </si>
+  <si>
+    <t>斯普劳特</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,6 +646,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
